--- a/ECDI_model.xlsx
+++ b/ECDI_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Repositories\EDCI-Data-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E870741-740B-410E-BFCF-468442089FE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56321A-8B9F-424D-8099-DB8BADF1129C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="6" activeTab="6" xr2:uid="{A43DAC4D-3848-4EAE-AC0D-3E6B152FBB9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A43DAC4D-3848-4EAE-AC0D-3E6B152FBB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="7" r:id="rId1"/>
@@ -3424,7 +3424,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -9616,7 +9616,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9931,12 +9931,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10119,15 +10116,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DC0167-6166-49C1-807E-C2398B5CAF50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C7F53A-8E89-4CCC-9F6C-1071910C1BD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="90fead69-4c3a-4d4e-b099-377171a192c4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5b8b0dab-f992-4a6f-a99a-885ec762b503"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10152,18 +10161,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C7F53A-8E89-4CCC-9F6C-1071910C1BD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DC0167-6166-49C1-807E-C2398B5CAF50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="90fead69-4c3a-4d4e-b099-377171a192c4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5b8b0dab-f992-4a6f-a99a-885ec762b503"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>